--- a/TASK_FUNCTIONALITY_TEST_CASES.xlsx
+++ b/TASK_FUNCTIONALITY_TEST_CASES.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E95806-3806-4B1F-847E-6F8F568EF48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F7B798-AEF0-4857-9D21-02A6EBB242E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Creation " sheetId="1" r:id="rId1"/>
+    <sheet name="Defect Report" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Creation '!$H$1:$H$31</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -385,12 +389,208 @@
   <si>
     <t xml:space="preserve">The application  redirected to the login screen </t>
   </si>
+  <si>
+    <t>Validate the system's response to an empty Subject field</t>
+  </si>
+  <si>
+    <t>Same as TEL_TC_02</t>
+  </si>
+  <si>
+    <t>The system should display the message "Please enter subject"</t>
+  </si>
+  <si>
+    <t>The system displayed the message "Please enter subject"</t>
+  </si>
+  <si>
+    <t>Validate the system's response to an empty Description field</t>
+  </si>
+  <si>
+    <t>The system should display the message "Please enter Description"</t>
+  </si>
+  <si>
+    <t>The system displayed the message "Please enter Description"</t>
+  </si>
+  <si>
+    <t>Validate the system's response to an empty Due Date field</t>
+  </si>
+  <si>
+    <t>The system should display the message "Please enter Due Date"</t>
+  </si>
+  <si>
+    <t>The system displayed the message "Please enter Due Date"</t>
+  </si>
+  <si>
+    <t>TEL_TC_15</t>
+  </si>
+  <si>
+    <t>TEL_TC_16</t>
+  </si>
+  <si>
+    <t>TEL_TC_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should display asterisk mark beside every compulsary field in the form  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system did not display asterisk mark beside every compulsary field in the form  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaidate the asterisk mark beside every compulsary field in the form  </t>
+  </si>
+  <si>
+    <t>Validate the maximum due date a user can set is infinite</t>
+  </si>
+  <si>
+    <t>Same as TEL_TC_03</t>
+  </si>
+  <si>
+    <t>Due Date: 01-01-2030</t>
+  </si>
+  <si>
+    <t>The system should accept the date and not return any errors.</t>
+  </si>
+  <si>
+    <t>The system  accepted the date and not return any errors.</t>
+  </si>
+  <si>
+    <t>TEL_TC_18</t>
+  </si>
+  <si>
+    <t>TEL_TC_19</t>
+  </si>
+  <si>
+    <t>Validate all user name is displayed in the dropdown</t>
+  </si>
+  <si>
+    <t>Same as TEL_TC_04</t>
+  </si>
+  <si>
+    <t>Validate all roles is displayed in the dropdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should display all the roles in the drop down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system  displayed all the  roles in the drop down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should display all the user names added in the drop down </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system  displayed aall the user names added in the drop down  </t>
+  </si>
+  <si>
+    <t>TEL_TC_20</t>
+  </si>
+  <si>
+    <t>TEL_TC_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to receive email notification after the task has been created </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should receive an  notification on his email id when a task has been created  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user did not receive an  notification on his email id when a task has been created  </t>
+  </si>
+  <si>
+    <t>TEL_TC_22</t>
+  </si>
+  <si>
+    <t>Validate the system's response to an empty Remark field</t>
+  </si>
+  <si>
+    <t>The system should display "Please enter Remark to close the Task"</t>
+  </si>
+  <si>
+    <t>The system displayed "Please enter Remark to close the Task"</t>
+  </si>
+  <si>
+    <t>TEL_TC_23</t>
+  </si>
+  <si>
+    <t>TEL_TC_24</t>
+  </si>
+  <si>
+    <t>TEL_TC_25</t>
+  </si>
+  <si>
+    <t>TEL_TC_26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to receive email notification after the task has been closed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Enter UID
+• Enter PWD
+• Click Login 
+• Click Review Moderation 
+• Click Review 
+• Click Manage 
+• Click Task 
+• Click Closed Task below the reviewer name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should receive an  notification on his email id when a task has been closed  </t>
+  </si>
+  <si>
+    <t>The user did not receive an  notification on his email id when a task has been closed</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the subject line character limit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the description line character limit </t>
+  </si>
+  <si>
+    <t>Verify the remark line character limit</t>
+  </si>
+  <si>
+    <t>TEL_TC_27</t>
+  </si>
+  <si>
+    <t>Defect Report for Telosa</t>
+  </si>
+  <si>
+    <t>Total Test Cases Created</t>
+  </si>
+  <si>
+    <t>Total Test Cases Passed</t>
+  </si>
+  <si>
+    <t>Total Test Cases Failed</t>
+  </si>
+  <si>
+    <t>Pass Percentage</t>
+  </si>
+  <si>
+    <t>Fail Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raised on Jira </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not in Scope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cancelled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,6 +608,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -433,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -461,6 +668,63 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -494,10 +758,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,21 +773,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -834,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,22 +1137,25 @@
     <col min="6" max="6" width="18.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="3"/>
+    <col min="9" max="9" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -890,32 +1180,42 @@
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="I2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -940,8 +1240,12 @@
       <c r="H5" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="I5" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -966,326 +1270,871 @@
       <c r="H6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="I6" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>40</v>
+        <v>137</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="I9" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="I10" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="I11" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="I12" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="I13" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="I14" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="I15" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="I16" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="I17" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="I18" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I19" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I20" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I21" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J22" s="2"/>
+    </row>
+    <row r="23" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I25" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I30" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J31" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A3:H3"/>
+  <autoFilter ref="H1:H31" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD137C9-FD4B-4D03-A4E3-CD84364ADBBF}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5">
+        <f>B5/A5*100</f>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="E5" s="5">
+        <f>C5/A5*100</f>
+        <v>22.222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TASK_FUNCTIONALITY_TEST_CASES.xlsx
+++ b/TASK_FUNCTIONALITY_TEST_CASES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F7B798-AEF0-4857-9D21-02A6EBB242E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A536ABF-C507-4B00-A4FF-0FE4A89B0D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Defect Report" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Creation '!$H$1:$H$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Task Creation '!$H$1:$H$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -574,9 +574,6 @@
     <t>Fail Percentage</t>
   </si>
   <si>
-    <t xml:space="preserve">Raised on Jira </t>
-  </si>
-  <si>
     <t xml:space="preserve">Not in Scope </t>
   </si>
   <si>
@@ -584,6 +581,15 @@
   </si>
   <si>
     <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to receive email notification after the task has been created in specified format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user should receive an  notification on his email id when a task has been created in specified format   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user  received an  notification on his email id when a task has been created  </t>
   </si>
 </sst>
 </file>
@@ -785,9 +791,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -804,6 +807,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1121,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1153,7 +1159,7 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="9"/>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1184,36 +1190,36 @@
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -1303,8 +1309,8 @@
       <c r="I7" s="4">
         <v>45503</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>148</v>
+      <c r="J7" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1335,7 +1341,7 @@
       <c r="I8" s="4">
         <v>45503</v>
       </c>
-      <c r="J8" s="11"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
@@ -1606,7 +1612,7 @@
         <v>45503</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -1779,17 +1785,15 @@
         <v>121</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="I23" s="4">
-        <v>45503</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>146</v>
-      </c>
+        <v>45505</v>
+      </c>
+      <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1851,151 +1855,151 @@
       </c>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>102</v>
       </c>
       <c r="I26" s="4">
-        <v>45503</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+        <v>45505</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="4">
-        <v>45503</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="I28" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="4">
-        <v>45503</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="I29" s="4">
         <v>45503</v>
       </c>
-      <c r="J29" s="2"/>
+      <c r="J29" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>44</v>
@@ -2005,27 +2009,27 @@
       </c>
       <c r="J30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>44</v>
@@ -2035,8 +2039,38 @@
       </c>
       <c r="J31" s="2"/>
     </row>
+    <row r="32" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="4">
+        <v>45503</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="H1:H31" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}"/>
+  <autoFilter ref="H1:H32" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}"/>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="J7:J8"/>
@@ -2076,22 +2110,22 @@
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">

--- a/TASK_FUNCTIONALITY_TEST_CASES.xlsx
+++ b/TASK_FUNCTIONALITY_TEST_CASES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A536ABF-C507-4B00-A4FF-0FE4A89B0D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F89FCC-C73F-4C44-A18A-016376896F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{84634E0E-FAA6-44D9-AD62-EF3D872C32E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Task Creation " sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="152">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -580,9 +580,6 @@
     <t xml:space="preserve">Cancelled </t>
   </si>
   <si>
-    <t xml:space="preserve">Status </t>
-  </si>
-  <si>
     <t xml:space="preserve">User should be able to receive email notification after the task has been created in specified format </t>
   </si>
   <si>
@@ -590,6 +587,10 @@
   </si>
   <si>
     <t xml:space="preserve">The user  received an  notification on his email id when a task has been created  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status
+ 08-08-2024 </t>
   </si>
 </sst>
 </file>
@@ -1129,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1145,9 @@
     <col min="7" max="7" width="15.44140625" style="3" customWidth="1"/>
     <col min="8" max="8" width="10" style="3" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="3"/>
+    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1161,7 +1164,7 @@
       <c r="I1" s="7"/>
       <c r="J1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>135</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1249,7 +1252,9 @@
       <c r="I5" s="4">
         <v>45503</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -1279,7 +1284,9 @@
       <c r="I6" s="4">
         <v>45503</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
@@ -1371,7 +1378,9 @@
       <c r="I9" s="4">
         <v>45503</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1401,7 +1410,9 @@
       <c r="I10" s="4">
         <v>45503</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1431,7 +1442,9 @@
       <c r="I11" s="4">
         <v>45503</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
@@ -1461,7 +1474,9 @@
       <c r="I12" s="4">
         <v>45503</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1491,7 +1506,9 @@
       <c r="I13" s="4">
         <v>45503</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -1521,7 +1538,9 @@
       <c r="I14" s="4">
         <v>45503</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -1551,7 +1570,9 @@
       <c r="I15" s="4">
         <v>45503</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
@@ -1581,7 +1602,9 @@
       <c r="I16" s="4">
         <v>45503</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1643,7 +1666,9 @@
       <c r="I18" s="4">
         <v>45503</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1673,7 +1698,9 @@
       <c r="I19" s="4">
         <v>45503</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1703,7 +1730,9 @@
       <c r="I20" s="4">
         <v>45503</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
@@ -1733,7 +1762,9 @@
       <c r="I21" s="4">
         <v>45503</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -1763,7 +1794,9 @@
       <c r="I22" s="4">
         <v>45503</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1785,7 +1818,7 @@
         <v>121</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>44</v>
@@ -1793,7 +1826,9 @@
       <c r="I23" s="4">
         <v>45505</v>
       </c>
-      <c r="J23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -1823,7 +1858,9 @@
       <c r="I24" s="4">
         <v>45503</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1853,14 +1890,16 @@
       <c r="I25" s="4">
         <v>45503</v>
       </c>
-      <c r="J25" s="2"/>
+      <c r="J25" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -1872,7 +1911,7 @@
         <v>37</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>122</v>
@@ -1883,7 +1922,9 @@
       <c r="I26" s="4">
         <v>45505</v>
       </c>
-      <c r="J26" s="2"/>
+      <c r="J26" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1945,7 +1986,9 @@
       <c r="I28" s="4">
         <v>45503</v>
       </c>
-      <c r="J28" s="2"/>
+      <c r="J28" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -2007,7 +2050,9 @@
       <c r="I30" s="4">
         <v>45503</v>
       </c>
-      <c r="J30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
@@ -2037,7 +2082,9 @@
       <c r="I31" s="4">
         <v>45503</v>
       </c>
-      <c r="J31" s="2"/>
+      <c r="J31" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -2067,7 +2114,9 @@
       <c r="I32" s="4">
         <v>45503</v>
       </c>
-      <c r="J32" s="2"/>
+      <c r="J32" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="H1:H32" xr:uid="{098F42E8-0B3A-4AE3-B7BA-B0105D4B8AAF}"/>
@@ -2086,8 +2135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD137C9-FD4B-4D03-A4E3-CD84364ADBBF}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2152,7 +2201,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="5">
         <f>B5/A5*100</f>
@@ -2160,7 +2209,7 @@
       </c>
       <c r="E5" s="5">
         <f>C5/A5*100</f>
-        <v>22.222222222222221</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
